--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="17700" yWindow="0" windowWidth="11100" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Parts</t>
   </si>
@@ -97,6 +97,36 @@
   </si>
   <si>
     <t>Technically a sync byte is not necessary, but lets put it anyway</t>
+  </si>
+  <si>
+    <t>Styles:</t>
+  </si>
+  <si>
+    <t>Time Rainbow</t>
+  </si>
+  <si>
+    <t>Space Rainbow</t>
+  </si>
+  <si>
+    <t>Flash Color</t>
+  </si>
+  <si>
+    <t>Flash Rainbow</t>
+  </si>
+  <si>
+    <t>Flash Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse </t>
+  </si>
+  <si>
+    <t>Theater Chase</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Flicker</t>
   </si>
 </sst>
 </file>
@@ -489,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -612,6 +642,56 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
